--- a/lab03/Lab03 Measurements.xlsx
+++ b/lab03/Lab03 Measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanb\Documents\Trinity-ENGR305-Microelectronic-Circuits\lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F4CC8E-7EBA-459F-823D-8670C0EE535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8544FB-C325-4E55-99EB-E12565A30ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Half Wave</t>
   </si>
@@ -65,22 +65,52 @@
     <t>4.72 V</t>
   </si>
   <si>
-    <t>10.4 V</t>
-  </si>
-  <si>
     <t>240 mV</t>
   </si>
   <si>
     <t>Vmax</t>
   </si>
   <si>
-    <t>4.32 V</t>
-  </si>
-  <si>
-    <t>5.20 V</t>
-  </si>
-  <si>
     <t>5.4 V</t>
+  </si>
+  <si>
+    <t>53.716 uF</t>
+  </si>
+  <si>
+    <t>9.015 kOhm</t>
+  </si>
+  <si>
+    <t>Resistance 1:</t>
+  </si>
+  <si>
+    <t>Resistance 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.031 Ohm </t>
+  </si>
+  <si>
+    <t>0.991 kOhm</t>
+  </si>
+  <si>
+    <t>2.4 V</t>
+  </si>
+  <si>
+    <t>9.2 V</t>
+  </si>
+  <si>
+    <t>4.16 V</t>
+  </si>
+  <si>
+    <t>3.44 V</t>
+  </si>
+  <si>
+    <t>400 mV</t>
+  </si>
+  <si>
+    <t>7.44 V</t>
+  </si>
+  <si>
+    <t>1.680 V</t>
   </si>
 </sst>
 </file>
@@ -398,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H9"/>
+  <dimension ref="A3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,14 +454,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -442,53 +469,101 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>9.0150000000000006</v>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <f>(B8)</f>
-        <v>9.0150000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="H9">
-        <v>53.716000000000001</v>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
